--- a/data/health.xlsx
+++ b/data/health.xlsx
@@ -7,19 +7,23 @@
     <workbookView windowWidth="23040" windowHeight="10880"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="1" r:id="rId1"/>
+    <sheet name="weight" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Temp</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -27,10 +31,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -43,43 +47,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,38 +61,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +82,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -149,9 +106,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,8 +120,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +169,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,187 +198,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,24 +389,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,21 +412,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +448,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -493,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,138 +509,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -964,7 +971,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -981,7 +988,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>43860.5833333333</v>
       </c>
       <c r="B2">
@@ -989,7 +996,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>43861.75</v>
       </c>
       <c r="B3">
@@ -997,7 +1004,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>43862.5833333333</v>
       </c>
       <c r="B4">
@@ -1005,11 +1012,47 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>43862.6145833333</v>
       </c>
       <c r="B5">
         <v>36.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9.54545454545454"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B2">
+        <v>149.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/health.xlsx
+++ b/data/health.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10880"/>
+    <workbookView windowWidth="19200" windowHeight="7280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,7 +46,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,35 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,94 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,187 +198,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,11 +392,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,17 +437,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,30 +465,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -497,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,133 +509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,13 +968,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.3636363636364"/>
   </cols>
@@ -1017,6 +1017,38 @@
       </c>
       <c r="B5">
         <v>36.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>43863.7083333333</v>
+      </c>
+      <c r="B6">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>43864.4375</v>
+      </c>
+      <c r="B7">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>43864.8958333333</v>
+      </c>
+      <c r="B8">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>43865.5</v>
+      </c>
+      <c r="B9">
+        <v>36.8</v>
       </c>
     </row>
   </sheetData>
@@ -1028,13 +1060,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.54545454545454"/>
   </cols>
@@ -1055,6 +1087,30 @@
         <v>149.1</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B4">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B5">
+        <v>150.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
